--- a/LocalData/skills.xlsx
+++ b/LocalData/skills.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>名称</t>
   </si>
@@ -165,6 +165,22 @@
   </si>
   <si>
     <t>释放元素之力，灼烧大地；持续施法，持续6秒；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operaDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -562,9 +578,10 @@
     <col min="3" max="3" width="70.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -579,6 +596,9 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -589,12 +609,11 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -610,11 +629,14 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -630,11 +652,14 @@
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -650,14 +675,15 @@
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4"/>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G4"/>
-      <c r="H4"/>
+      <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
@@ -673,8 +699,11 @@
       <c r="E5" s="1">
         <v>1002</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F5" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
@@ -690,8 +719,11 @@
       <c r="E6" s="1">
         <v>1003</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
@@ -707,8 +739,11 @@
       <c r="E7" s="1">
         <v>1001</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F7" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>1101</v>
       </c>
@@ -724,8 +759,11 @@
       <c r="E8" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>1102</v>
       </c>
@@ -741,8 +779,11 @@
       <c r="E9" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>1103</v>
       </c>
@@ -758,8 +799,11 @@
       <c r="E10" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>2001</v>
       </c>
@@ -775,8 +819,11 @@
       <c r="E11" s="1">
         <v>2002</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F11" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>2002</v>
       </c>
@@ -792,8 +839,11 @@
       <c r="E12" s="1">
         <v>2003</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F12" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>2003</v>
       </c>
@@ -809,8 +859,11 @@
       <c r="E13" s="1">
         <v>2001</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F13" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>2101</v>
       </c>
@@ -826,8 +879,11 @@
       <c r="E14" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>2102</v>
       </c>
@@ -843,8 +899,11 @@
       <c r="E15" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>2103</v>
       </c>
@@ -859,6 +918,9 @@
       </c>
       <c r="E16" s="1">
         <v>-1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/LocalData/skills.xlsx
+++ b/LocalData/skills.xlsx
@@ -569,7 +569,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -760,7 +760,7 @@
         <v>-1</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -780,7 +780,7 @@
         <v>-1</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -800,7 +800,7 @@
         <v>-1</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">

--- a/LocalData/skills.xlsx
+++ b/LocalData/skills.xlsx
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>subSkillId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>连招ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +177,10 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextSkillId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,15 +569,15 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -595,10 +595,10 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -630,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -653,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -673,10 +673,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4"/>
       <c r="P4" s="4"/>
@@ -688,10 +688,10 @@
         <v>1001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1">
         <v>10001</v>
@@ -711,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1">
         <v>10002</v>
@@ -731,7 +731,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1">
         <v>10003</v>
@@ -748,10 +748,10 @@
         <v>1101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
         <v>11001</v>
@@ -768,10 +768,10 @@
         <v>1102</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
         <v>11002</v>
@@ -788,10 +788,10 @@
         <v>1103</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1">
         <v>11003</v>
@@ -808,10 +808,10 @@
         <v>2001</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D11" s="1">
         <v>20001</v>
@@ -828,10 +828,10 @@
         <v>2002</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1">
         <v>20002</v>
@@ -848,10 +848,10 @@
         <v>2003</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1">
         <v>20003</v>
@@ -868,10 +868,10 @@
         <v>2101</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1">
         <v>21001</v>
@@ -888,10 +888,10 @@
         <v>2102</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1">
         <v>21002</v>
@@ -908,10 +908,10 @@
         <v>2103</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1">
         <v>21003</v>

--- a/LocalData/skills.xlsx
+++ b/LocalData/skills.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>名称</t>
   </si>
@@ -65,45 +65,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三段劈二式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三段劈三式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>连招ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三段劈一式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>巨斧旋风</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跳劈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴走</t>
-  </si>
-  <si>
-    <t>三段劈一式，连续攻击，挥砍三次，力量逐渐增强；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三段劈二式，连续攻击，挥砍三次，力量逐渐增强；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三段劈三式，连续攻击，挥砍三次，力量逐渐增强；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>挥动手中巨斧，对附近敌人造成伤害，持续5秒；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +150,30 @@
   </si>
   <si>
     <t>nextSkillId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎灵狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶猛跃击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨斧斩击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨斧斩击一式，连续攻击挥砍三次，力量逐渐增强；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨斧斩击二式，连续攻击挥砍三次，力量逐渐增强；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨斧斩击三式，连续攻击挥砍三次，力量逐渐增强；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +562,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -595,10 +588,10 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -630,7 +623,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -653,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -673,10 +666,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G4"/>
       <c r="P4" s="4"/>
@@ -688,10 +681,10 @@
         <v>1001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1">
         <v>10001</v>
@@ -708,10 +701,10 @@
         <v>1002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
         <v>10002</v>
@@ -728,10 +721,10 @@
         <v>1003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1">
         <v>10003</v>
@@ -748,10 +741,10 @@
         <v>1101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>11001</v>
@@ -760,7 +753,7 @@
         <v>-1</v>
       </c>
       <c r="F8" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -768,10 +761,10 @@
         <v>1102</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
         <v>11002</v>
@@ -788,10 +781,10 @@
         <v>1103</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1">
         <v>11003</v>
@@ -808,10 +801,10 @@
         <v>2001</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1">
         <v>20001</v>
@@ -828,10 +821,10 @@
         <v>2002</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1">
         <v>20002</v>
@@ -848,10 +841,10 @@
         <v>2003</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1">
         <v>20003</v>
@@ -868,10 +861,10 @@
         <v>2101</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1">
         <v>21001</v>
@@ -888,10 +881,10 @@
         <v>2102</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1">
         <v>21002</v>
@@ -908,10 +901,10 @@
         <v>2103</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1">
         <v>21003</v>

--- a/LocalData/skills.xlsx
+++ b/LocalData/skills.xlsx
@@ -201,12 +201,14 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -562,7 +564,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -690,7 +692,7 @@
         <v>10001</v>
       </c>
       <c r="E5" s="1">
-        <v>1002</v>
+        <v>-1</v>
       </c>
       <c r="F5" s="1">
         <v>-1</v>
@@ -710,7 +712,7 @@
         <v>10002</v>
       </c>
       <c r="E6" s="1">
-        <v>1003</v>
+        <v>-1</v>
       </c>
       <c r="F6" s="1">
         <v>-1</v>
@@ -730,7 +732,7 @@
         <v>10003</v>
       </c>
       <c r="E7" s="1">
-        <v>1001</v>
+        <v>-1</v>
       </c>
       <c r="F7" s="1">
         <v>-1</v>

--- a/LocalData/skills.xlsx
+++ b/LocalData/skills.xlsx
@@ -564,7 +564,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
